--- a/Employee Information Entry Software.xlsx
+++ b/Employee Information Entry Software.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Microsoft Skills\MS Excel\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A87A547-A1EE-47FE-B3FE-FC85476ADE3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F26FB7-C53D-41BF-9C66-4B7F1E452718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2430" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4FEDE0D2-7F9C-4B33-A4EE-1003081C5200}"/>
+    <workbookView xWindow="-28920" yWindow="2430" windowWidth="29040" windowHeight="15840" xr2:uid="{4FEDE0D2-7F9C-4B33-A4EE-1003081C5200}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Form" sheetId="1" r:id="rId1"/>
-    <sheet name="Info" sheetId="3" r:id="rId2"/>
+    <sheet name="Emp_information" sheetId="3" r:id="rId2"/>
     <sheet name="Database" sheetId="4" r:id="rId3"/>
-    <sheet name="District" sheetId="2" r:id="rId4"/>
+    <sheet name="District" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>Employe ID</t>
   </si>
@@ -294,7 +294,22 @@
     <t>Call3</t>
   </si>
   <si>
-    <t>Data Clear</t>
+    <t>Personal Information:</t>
+  </si>
+  <si>
+    <t>Mirpur, Dhaka 1216</t>
+  </si>
+  <si>
+    <t>mahmudul.data@gmail.com</t>
+  </si>
+  <si>
+    <t>Joynal Abedin</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Tahmid Mahmud</t>
   </si>
 </sst>
 </file>
@@ -304,7 +319,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,12 +407,41 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="4"/>
+      <color theme="0"/>
       <name val="Bahnschrift Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +472,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -498,23 +548,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,12 +659,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -557,36 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -594,10 +691,107 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -617,11 +811,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" firstButton="1" fmlaLink="$N$28" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" firstButton="1" fmlaLink="$N$28" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Radio" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -708,7 +902,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>180975</xdr:colOff>
+          <xdr:colOff>180976</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
@@ -775,7 +969,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>123825</xdr:colOff>
+          <xdr:colOff>123824</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
@@ -868,7 +1062,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1DCCF3-A72A-415B-B9E1-8E4C1AC1E148}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,16 +1091,10 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:extLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1235,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45FE541B-BD88-48AC-ABB6-CD12B0CDB1D1}">
   <dimension ref="B1:T33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1432,7 @@
     <col min="2" max="2" width="11.140625" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="3.42578125" customWidth="1"/>
@@ -1252,295 +1440,528 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="58"/>
     </row>
     <row r="2" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="34" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="34" t="s">
         <v>15</v>
       </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="24">
-        <v>123</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="1" t="str">
+      <c r="B5" s="35">
+        <v>124</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="36" t="str">
         <f>IF(B5="","","P")</f>
         <v>P</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="37" t="str">
         <f>IF(B5="","*","")</f>
         <v/>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="1" t="str">
+      <c r="G5" s="29"/>
+      <c r="H5" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="36" t="str">
         <f>IF(H5="","","P")</f>
+        <v>P</v>
+      </c>
+      <c r="L5" s="38" t="str">
+        <f>IF(H5="","*","")</f>
         <v/>
       </c>
-      <c r="L5" s="2" t="str">
-        <f>IF(H5="","*","")</f>
-        <v>*</v>
-      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="27"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="34" t="s">
         <v>8</v>
       </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="1" t="str">
+      <c r="B8" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="36" t="str">
         <f>IF(B8="","","P")</f>
+        <v>P</v>
+      </c>
+      <c r="F8" s="37" t="str">
+        <f>IF(B8="","*","")</f>
         <v/>
       </c>
-      <c r="F8" s="2" t="str">
-        <f>IF(B8="","*","")</f>
-        <v>*</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="1" t="str">
+      <c r="G8" s="29"/>
+      <c r="H8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="36" t="str">
         <f>IF(OR(H8="",H8="Select District"),"","P")</f>
+        <v>P</v>
+      </c>
+      <c r="L8" s="38" t="str">
+        <f>IF(OR(H8="",H8="Select District"),"*","")</f>
         <v/>
       </c>
-      <c r="L8" s="2" t="str">
-        <f>IF(OR(H8="",H8="Select District"),"*","")</f>
-        <v>*</v>
-      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="34" t="s">
         <v>19</v>
       </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="28"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="1" t="str">
+      <c r="B11" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="36" t="str">
         <f>IF(B11="","","P")</f>
+        <v>P</v>
+      </c>
+      <c r="F11" s="37" t="str">
+        <f>IF(B11="","*","")</f>
         <v/>
       </c>
-      <c r="F11" s="2" t="str">
-        <f>IF(B11="","*","")</f>
-        <v>*</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="1" t="str">
+      <c r="G11" s="29"/>
+      <c r="H11" s="23">
+        <v>13111111</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="36" t="str">
         <f>IF(H11="","","P")</f>
+        <v>P</v>
+      </c>
+      <c r="L11" s="38" t="str">
+        <f>IF(H11="","*","")</f>
         <v/>
       </c>
-      <c r="L11" s="2" t="str">
-        <f>IF(H11="","*","")</f>
-        <v>*</v>
-      </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
       <c r="Q12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="H13" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="34" t="s">
         <v>18</v>
       </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="1" t="str">
+      <c r="B14" s="40">
+        <v>36252</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="36" t="str">
         <f>IF(B14="","","P")</f>
+        <v>P</v>
+      </c>
+      <c r="F14" s="37" t="str">
+        <f>IF(B14="","*","")</f>
         <v/>
       </c>
-      <c r="F14" s="2" t="str">
-        <f>IF(B14="","*","")</f>
-        <v>*</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="1" t="str">
+      <c r="G14" s="29"/>
+      <c r="H14" s="23">
+        <v>2222</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="36" t="str">
         <f>IF(H14="","","P")</f>
+        <v>P</v>
+      </c>
+      <c r="L14" s="38" t="str">
+        <f>IF(H14="","*","")</f>
         <v/>
       </c>
-      <c r="L14" s="2" t="str">
-        <f>IF(H14="","*","")</f>
-        <v>*</v>
-      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="27"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="H16" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="34" t="s">
         <v>3</v>
       </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="1" t="str">
+      <c r="B17" s="35">
+        <v>224548854</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="36" t="str">
         <f>IF(B17="","","P")</f>
+        <v>P</v>
+      </c>
+      <c r="F17" s="37" t="str">
+        <f>IF(B17="","*","")</f>
         <v/>
       </c>
-      <c r="F17" s="2" t="str">
-        <f>IF(B17="","*","")</f>
-        <v>*</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" s="29"/>
+      <c r="H17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="6"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="42"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B18" s="27"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="27"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
     </row>
     <row r="20" spans="2:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H21" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="34" t="s">
         <v>21</v>
       </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="1" t="str">
+      <c r="B22" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="36" t="str">
         <f>IF(B22="","","P")</f>
+        <v>P</v>
+      </c>
+      <c r="F22" s="47" t="str">
+        <f>IF(B22="","*","")</f>
         <v/>
       </c>
-      <c r="F22" s="2" t="str">
-        <f>IF(B22="","*","")</f>
-        <v>*</v>
-      </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="1" t="str">
+      <c r="G22" s="29"/>
+      <c r="H22" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="36" t="str">
         <f>IF(H22="","","P")</f>
+        <v>P</v>
+      </c>
+      <c r="L22" s="59" t="str">
+        <f>IF(H22="","*","")</f>
         <v/>
       </c>
-      <c r="L22" s="2" t="str">
-        <f>IF(H22="","*","")</f>
-        <v>*</v>
-      </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="33" t="s">
         <v>19</v>
       </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="1" t="str">
+      <c r="B25" s="49">
+        <v>1855555</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="36" t="str">
         <f>IF(B25="","","P")</f>
+        <v>P</v>
+      </c>
+      <c r="F25" s="60" t="str">
+        <f>IF(B25="","*","")</f>
         <v/>
       </c>
-      <c r="F25" s="2" t="str">
-        <f>IF(B25="","*","")</f>
-        <v>*</v>
-      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H26" s="20" t="s">
+      <c r="B26" s="27"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="51"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="N27" t="b">
+      <c r="B27" s="27"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="N27" s="26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D33" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="32"/>
+    <row r="28" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="N28" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H26:L27"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H11:J11"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B22:D22"/>
@@ -1549,14 +1970,6 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H26:L27"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="H11:J11"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:D5" xr:uid="{5760D114-25DF-4816-B204-B31476CC3484}">
@@ -1573,16 +1986,19 @@
       <formula2>44562</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" xr:uid="{887723FC-69A0-4BD8-A6BB-BC5DCB22DD97}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId4" name="Option Button 1">
+            <control shapeId="1025" r:id="rId5" name="Option Button 1">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1604,7 +2020,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId5" name="Option Button 2">
+            <control shapeId="1026" r:id="rId6" name="Option Button 2">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1626,7 +2042,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1027" r:id="rId6" name="Check Box 3">
+            <control shapeId="1027" r:id="rId7" name="Check Box 3">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -1669,7 +2085,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,18 +2107,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="K1" s="29" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="K1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1748,55 +2164,51 @@
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>IF('Data Form'!B5=0,"",'Data Form'!B5)</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" t="str">
         <f>IF('Data Form'!H5=0,"",'Data Form'!H5)</f>
-        <v/>
+        <v>Tahmid Mahmud</v>
       </c>
       <c r="C3" t="str">
         <f>IF('Data Form'!B8=0,"",'Data Form'!B8)</f>
-        <v/>
+        <v>Mirpur, Dhaka 1216</v>
       </c>
       <c r="D3" t="str">
         <f>IF('Data Form'!H8=0,"",'Data Form'!H8)</f>
-        <v/>
+        <v>Dhaka</v>
       </c>
       <c r="E3" t="str">
         <f>IF('Data Form'!B11=0,"",'Data Form'!B11)</f>
-        <v/>
-      </c>
-      <c r="F3" s="30" t="str">
+        <v>mahmudul.data@gmail.com</v>
+      </c>
+      <c r="F3" s="14">
         <f>IF('Data Form'!H11=0,"",'Data Form'!H11)</f>
-        <v/>
-      </c>
-      <c r="G3" s="35" t="str">
+        <v>13111111</v>
+      </c>
+      <c r="G3" s="18">
         <f>IF('Data Form'!H14=0,"",'Data Form'!H14)</f>
-        <v/>
-      </c>
-      <c r="H3" s="31" t="str">
+        <v>2222</v>
+      </c>
+      <c r="H3" s="15">
         <f>IF('Data Form'!B14=0,"",'Data Form'!B14)</f>
-        <v/>
-      </c>
-      <c r="I3" t="str">
+        <v>36252</v>
+      </c>
+      <c r="I3">
         <f>IF('Data Form'!B17=0,"",'Data Form'!B17)</f>
-        <v/>
-      </c>
-      <c r="J3" t="str">
-        <f>IF('Data Form'!N28=1,"Male","Female")</f>
-        <v>Female</v>
+        <v>224548854</v>
       </c>
       <c r="K3" t="str">
         <f>IF('Data Form'!B22=0,"",'Data Form'!B22)</f>
-        <v/>
+        <v>Joynal Abedin</v>
       </c>
       <c r="L3" t="str">
         <f>IF('Data Form'!H22=0,"",'Data Form'!H22)</f>
-        <v/>
-      </c>
-      <c r="M3" s="30" t="str">
+        <v>Father</v>
+      </c>
+      <c r="M3" s="14">
         <f>IF('Data Form'!B25=0,"",'Data Form'!B25)</f>
-        <v/>
+        <v>1855555</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1815,10 +2227,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939432AE-A1AE-4788-B69F-664910621464}">
-  <dimension ref="A2:M2"/>
+  <dimension ref="A2:R151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,6 +2290,9 @@
       <c r="M2" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="151" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R151" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1924,824 +2339,824 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="15"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="12"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="18"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="12"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="12"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="12"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>41</v>
       </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
-      <c r="K25" s="12"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="15"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
-      <c r="K28" s="15"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="18"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="12"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="K30" s="15"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>48</v>
       </c>
-      <c r="K31" s="12"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="15"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>50</v>
       </c>
-      <c r="K33" s="12"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>51</v>
       </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>52</v>
       </c>
-      <c r="K35" s="12"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>54</v>
       </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>55</v>
       </c>
-      <c r="K38" s="15"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>56</v>
       </c>
-      <c r="K39" s="12"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>57</v>
       </c>
-      <c r="K40" s="15"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="18"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="12"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>58</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>59</v>
       </c>
-      <c r="K42" s="15"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>60</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>61</v>
       </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>62</v>
       </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="19"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="13"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>63</v>
       </c>
-      <c r="K46" s="15"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="18"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="12"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>64</v>
       </c>
-      <c r="K47" s="12"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="15"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>66</v>
       </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="12"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
-      <c r="K50" s="15"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>68</v>
       </c>
-      <c r="K51" s="12"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="13"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>69</v>
       </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>70</v>
       </c>
-      <c r="K53" s="12"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="13"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>71</v>
       </c>
-      <c r="K54" s="15"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="17"/>
-      <c r="R54" s="17"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>72</v>
       </c>
-      <c r="K55" s="12"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="13"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>11</v>
       </c>
-      <c r="K56" s="15"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>73</v>
       </c>
-      <c r="K57" s="12"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="13"/>
-      <c r="O57" s="13"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="14"/>
-      <c r="R57" s="14"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>74</v>
       </c>
-      <c r="K58" s="15"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>75</v>
       </c>
-      <c r="K59" s="12"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="13"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="14"/>
-      <c r="R59" s="14"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
-      <c r="K60" s="15"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="17"/>
-      <c r="R60" s="17"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="11"/>
+      <c r="R60" s="11"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
-      <c r="K61" s="12"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="14"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="8"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
-      <c r="K62" s="15"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="17"/>
-      <c r="R62" s="17"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>79</v>
       </c>
-      <c r="K63" s="12"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="14"/>
-      <c r="R63" s="14"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>80</v>
       </c>
-      <c r="K64" s="15"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>81</v>
       </c>
-      <c r="K65" s="12"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="13"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="14"/>
-      <c r="R65" s="14"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K66" s="15"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="15"/>
-      <c r="Q66" s="17"/>
-      <c r="R66" s="17"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K67" s="12"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="13"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="14"/>
-      <c r="R67" s="14"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K68" s="15"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="11"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
